--- a/biology/Zoologie/Caribezomus_laurae/Caribezomus_laurae.xlsx
+++ b/biology/Zoologie/Caribezomus_laurae/Caribezomus_laurae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caribezomus laurae, unique représentant du genre Caribezomus , est une espèce de schizomides de la famille des Hubbardiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Jamaïque[1]. Elle se rencontre dans la grotte Drip Cave dans la paroisse de Trelawny et dans la grotte Ken Connell Hole dans la Paroisse de Saint Ann.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Jamaïque. Elle se rencontre dans la grotte Drip Cave dans la paroisse de Trelawny et dans la grotte Ken Connell Hole dans la Paroisse de Saint Ann.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 3,65 mm et la femelle paratype 4,5 mm, les mâles mesurent de 3,55 à 3,85 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 3,65 mm et la femelle paratype 4,5 mm, les mâles mesurent de 3,55 à 3,85 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Laura Leibensperger[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Laura Leibensperger.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Armas, 2011 : Género nuevo de Hubbardiidae (Arachnida: Schizomida) para Jamaica. Solenodon, vol. 9, p. 12-19, (texte intégral).</t>
         </is>
